--- a/SDS2.0Metadata/resources.xlsx
+++ b/SDS2.0Metadata/resources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nalo1\2022-project-2\SDS2.0Metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2A0B657-CDB9-4522-9B47-9FC2E9EE6CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1778DD9B-C7E1-42C6-82F6-A29671438FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>RRID</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Parameter Used</t>
   </si>
   <si>
-    <t>Wav</t>
-  </si>
-  <si>
     <t>www.wave.com</t>
   </si>
   <si>
@@ -63,9 +60,6 @@
     <t>Frequency</t>
   </si>
   <si>
-    <t>HOT</t>
-  </si>
-  <si>
     <t>www.heat.com</t>
   </si>
   <si>
@@ -78,7 +72,49 @@
     <t>very hot</t>
   </si>
   <si>
-    <t>Heat</t>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>www.solderiron.com</t>
+  </si>
+  <si>
+    <t>IronThrone</t>
+  </si>
+  <si>
+    <t>2.4.6</t>
+  </si>
+  <si>
+    <t>Wait until its hot</t>
+  </si>
+  <si>
+    <t>Soldered</t>
+  </si>
+  <si>
+    <t>www.Microphone.com</t>
+  </si>
+  <si>
+    <t>Hot mics</t>
+  </si>
+  <si>
+    <t>2.2.2</t>
+  </si>
+  <si>
+    <t>Placed in front of mouse</t>
+  </si>
+  <si>
+    <t>Sound</t>
+  </si>
+  <si>
+    <t>1.1.4</t>
+  </si>
+  <si>
+    <t>Placed behind mouse</t>
+  </si>
+  <si>
+    <t>4.4.9</t>
+  </si>
+  <si>
+    <t>Placed above mouse</t>
   </si>
 </sst>
 </file>
@@ -185,7 +221,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -204,6 +240,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -587,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.61328125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -622,49 +659,133 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="1">
+        <v>22346</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="1">
+        <v>12354</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>65451</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>32142</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>35543</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>33242</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{74B76FB0-E619-4149-9033-B9B9A2BBB9F5}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{94137DAD-9D55-4F10-9539-4FE9306059B5}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{BC8DBF9B-ACFF-4BFE-B6E6-1B39CDCD5B67}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{E4DA3A81-162A-470B-A666-6EE8ACB52462}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{775A4F24-850A-4075-BB77-BD75F78B6442}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{214D122E-682A-499B-AB74-C4F4BF2730B0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300"/>

--- a/SDS2.0Metadata/resources.xlsx
+++ b/SDS2.0Metadata/resources.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nalo1\2022-project-2\SDS2.0Metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1778DD9B-C7E1-42C6-82F6-A29671438FD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4740AC5-FBA6-4179-AE61-697D6235E91A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
